--- a/Data/ukr_budget_receipt_comulative_total.xlsx
+++ b/Data/ukr_budget_receipt_comulative_total.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="20800" windowHeight="12760"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="18900" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="budget receipt comulative" sheetId="1" r:id="rId1"/>
-    <sheet name="Info" sheetId="2" r:id="rId2"/>
+    <sheet name="Information" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -388,12 +388,12 @@
   <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -549,13 +549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.796875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">

--- a/Data/ukr_budget_receipt_comulative_total.xlsx
+++ b/Data/ukr_budget_receipt_comulative_total.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/privatization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="18900" windowHeight="8820"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="19640" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="budget receipt comulative" sheetId="1" r:id="rId1"/>
-    <sheet name="Information" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -36,13 +37,13 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Data source - data is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.85 http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html.</t>
-  </si>
-  <si>
     <t>Data is given in commulative total for the end of the relevant year</t>
   </si>
   <si>
     <t>1992-1999</t>
+  </si>
+  <si>
+    <t>Data source - data is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.85 http://www.spfu.gov.ua/ru/documents/press-list/spf-reports/7389.html</t>
   </si>
   <si>
     <t>Million UAH</t>
@@ -406,7 +407,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1202.5999999999999</v>
@@ -549,7 +550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -563,15 +566,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/ukr_budget_receipt_comulative_total.xlsx
+++ b/Data/ukr_budget_receipt_comulative_total.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/data2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="19640" windowHeight="9780"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="19680" windowHeight="12040"/>
   </bookViews>
   <sheets>
     <sheet name="budget receipt comulative" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
     <t>Year</t>
   </si>
   <si>
+    <t>Data source - data is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.85 http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html.</t>
+  </si>
+  <si>
     <t>Data is given in commulative total for the end of the relevant year</t>
   </si>
   <si>
     <t>1992-1999</t>
-  </si>
-  <si>
-    <t>Data source - data is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.85 http://www.spfu.gov.ua/ru/documents/press-list/spf-reports/7389.html</t>
   </si>
   <si>
     <t>Million UAH</t>
@@ -389,7 +389,7 @@
   <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -407,7 +407,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1202.5999999999999</v>
@@ -466,7 +466,7 @@
         <v>2006</v>
       </c>
       <c r="B10">
-        <v>36638.9</v>
+        <v>38638.9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -551,7 +551,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -566,12 +566,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
